--- a/output/2025/scraped_data/Supply Center of the National Health Services System 2025.xlsx
+++ b/output/2025/scraped_data/Supply Center of the National Health Services System 2025.xlsx
@@ -7808,7 +7808,7 @@
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Lobista</t>
         </is>
       </c>
       <c r="M147" t="inlineStr">
@@ -21921,7 +21921,7 @@
       </c>
       <c r="L432" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Lobista</t>
         </is>
       </c>
       <c r="M432" t="inlineStr">
@@ -29213,7 +29213,7 @@
       </c>
       <c r="L590" t="inlineStr">
         <is>
-          <t>Lobista</t>
+          <t>Gestor de intereses</t>
         </is>
       </c>
       <c r="M590" t="inlineStr">
